--- a/Resultados_eficiencia_1.25.xlsx
+++ b/Resultados_eficiencia_1.25.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>321852584.3759994</v>
+        <v>26073493655.51857</v>
       </c>
       <c r="B2" t="n">
-        <v>2.319000005722046</v>
+        <v>2.147000074386597</v>
       </c>
     </row>
   </sheetData>
@@ -5222,10 +5222,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>153836297.7120002</v>
+        <v>22460412240.00002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005705400000000006</v>
+        <v>0.8330000000000009</v>
       </c>
     </row>
     <row r="3">
@@ -5233,10 +5233,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>73871298.21600008</v>
+        <v>1348164000.000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002739700000000003</v>
+        <v>0.05000000000000005</v>
       </c>
     </row>
     <row r="4">
@@ -5244,10 +5244,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49493796.76800004</v>
+        <v>458375760.0000004</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001835600000000002</v>
+        <v>0.01700000000000002</v>
       </c>
     </row>
     <row r="5">
@@ -5255,10 +5255,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2790699.480000002</v>
+        <v>1895.518584000002</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001035000000000001</v>
+        <v>7.030000000000007e-08</v>
       </c>
     </row>
     <row r="6">
@@ -5266,10 +5266,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41860492.20000004</v>
+        <v>1806539760.000002</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001552500000000002</v>
+        <v>0.06700000000000006</v>
       </c>
     </row>
   </sheetData>
